--- a/data/DataVisualizationClassSurvey.xlsx
+++ b/data/DataVisualizationClassSurvey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjbranson/Documents/CMU/Research/Statistical Graphics Paper/Graphs Paper Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjbranson/Documents/CMU/Research/Statistical Graphics Paper/Replication Materials GitHub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890F1AC-4153-314F-AC85-A7A5C7D54E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29BB642-3848-914D-8C8D-35E21F8942EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Universities" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>data quirk: i added multiple departments in these columns and split them with commas. however, I realize that some of the departments are super long and separated by commas (so 1 department may get split into multiple departments)
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="952">
   <si>
     <t>University</t>
   </si>
@@ -2874,18 +2875,9 @@
     <t>Course Catalog is broken OR inaccessible (e.g. can only search by department, PDF is not searchable)</t>
   </si>
   <si>
-    <t>School in progress OR has classes to review</t>
-  </si>
-  <si>
     <t>School search is complete</t>
   </si>
   <si>
-    <t>Borderline case that is included</t>
-  </si>
-  <si>
-    <t>Course Catalog for 22-23 not available yet</t>
-  </si>
-  <si>
     <t>Bold School Name</t>
   </si>
   <si>
@@ -2907,12 +2899,6 @@
     <t>Column E explanation:</t>
   </si>
   <si>
-    <t>I made this column to document any schools that I searched parts of/ for schools I marked purple or red. I ended up due to only some parts being available/accesible</t>
-  </si>
-  <si>
-    <t>marking these as green but wanted to make it clear that I may be missing some information due to only some parts being available/accesible</t>
-  </si>
-  <si>
     <t>The cases in this column are either:</t>
   </si>
   <si>
@@ -2944,13 +2930,16 @@
   </si>
   <si>
     <t>Hypothesis Testing/Confidence Intervals, Statistical Modeling, Spatial Data, Clustering, Time Series, High Dimensional, Text Data, Interactive Graphics</t>
+  </si>
+  <si>
+    <t>I made this column to document any schools that I searched parts of or schools I marked red. This was due to only some parts being available/accesible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3135,15 +3124,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3154,12 +3136,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -3182,12 +3158,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6B8AF"/>
         <bgColor rgb="FFE6B8AF"/>
       </patternFill>
@@ -3205,7 +3175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3213,42 +3183,34 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3256,9 +3218,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3504,11 +3472,11 @@
   </sheetPr>
   <dimension ref="A1:DF112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4384,22 +4352,22 @@
       <c r="S11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="36" t="s">
         <v>102</v>
       </c>
       <c r="Z11" s="1"/>
@@ -4629,7 +4597,7 @@
       <c r="M13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="5" t="s">
         <v>214</v>
       </c>
       <c r="O13" s="1" t="s">
@@ -4887,7 +4855,7 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B19" s="1">
@@ -4899,7 +4867,7 @@
       <c r="D19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4920,22 +4888,22 @@
       <c r="K19" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="7" t="s">
         <v>263</v>
       </c>
       <c r="T19" s="1" t="s">
@@ -4988,20 +4956,20 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="7" t="s">
         <v>273</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -5034,20 +5002,20 @@
       <c r="Y20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA20" s="9" t="s">
+      <c r="AA20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9" t="s">
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AD20" s="9" t="s">
+      <c r="AD20" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AE20" s="9" t="s">
+      <c r="AE20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AF20" s="9" t="s">
+      <c r="AF20" s="7" t="s">
         <v>184</v>
       </c>
       <c r="AH20" s="1" t="s">
@@ -5065,38 +5033,38 @@
       <c r="AM20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AO20" s="9" t="s">
+      <c r="AO20" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="AP20" s="11" t="s">
+      <c r="AP20" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="AQ20" s="9" t="s">
+      <c r="AQ20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AR20" s="9" t="s">
+      <c r="AR20" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="AS20" s="9" t="s">
+      <c r="AS20" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="AT20" s="9" t="s">
+      <c r="AT20" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="AV20" s="9" t="s">
+      <c r="AV20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9" t="s">
+      <c r="AW20" s="7"/>
+      <c r="AX20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AY20" s="9" t="s">
+      <c r="AY20" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="AZ20" s="9" t="s">
+      <c r="AZ20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BA20" s="9" t="s">
+      <c r="BA20" s="7" t="s">
         <v>184</v>
       </c>
       <c r="BC20" s="1" t="s">
@@ -5484,7 +5452,7 @@
       <c r="BZ24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="CA24" s="12" t="s">
+      <c r="CA24" s="10" t="s">
         <v>330</v>
       </c>
       <c r="CB24" s="1" t="s">
@@ -5496,23 +5464,23 @@
       <c r="CD24" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CE24" s="9" t="s">
+      <c r="CE24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="CF24" s="9"/>
-      <c r="CG24" s="9" t="s">
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CH24" s="13" t="s">
+      <c r="CH24" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="CI24" s="9" t="s">
+      <c r="CI24" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CJ24" s="9" t="s">
+      <c r="CJ24" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="CK24" s="9"/>
+      <c r="CK24" s="7"/>
       <c r="CL24" s="1" t="s">
         <v>335</v>
       </c>
@@ -5591,7 +5559,7 @@
         <v>198</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>172</v>
@@ -5608,17 +5576,17 @@
       <c r="P25" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q25" s="9" t="s">
+      <c r="Q25" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9" t="s">
+      <c r="S25" s="7"/>
+      <c r="T25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="5" t="s">
         <v>349</v>
       </c>
       <c r="V25" s="1" t="s">
@@ -5702,7 +5670,7 @@
       <c r="BC25" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="BD25" s="7" t="s">
+      <c r="BD25" s="5" t="s">
         <v>363</v>
       </c>
       <c r="BE25" s="1" t="s">
@@ -5719,7 +5687,7 @@
       </c>
     </row>
     <row r="26" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>365</v>
       </c>
       <c r="B26" s="1">
@@ -5888,7 +5856,7 @@
       <c r="T28" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="U28" s="15" t="s">
+      <c r="U28" s="13" t="s">
         <v>387</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -5995,7 +5963,7 @@
       <c r="V29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W29" s="12" t="s">
+      <c r="W29" s="10" t="s">
         <v>400</v>
       </c>
       <c r="X29" s="1" t="s">
@@ -6314,7 +6282,7 @@
       </c>
     </row>
     <row r="32" spans="1:110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="12" t="s">
         <v>439</v>
       </c>
       <c r="B32" s="1">
@@ -6436,7 +6404,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>455</v>
       </c>
       <c r="B35" s="1">
@@ -6544,16 +6512,16 @@
       </c>
     </row>
     <row r="38" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="12" t="s">
         <v>465</v>
       </c>
       <c r="B38" s="1">
         <v>36</v>
       </c>
-      <c r="C38" s="17" t="b">
+      <c r="C38" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="D38" s="17" t="b">
+      <c r="D38" s="15" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -6621,22 +6589,22 @@
       <c r="K39" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="O39" s="9" t="s">
+      <c r="O39" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P39" s="9" t="s">
+      <c r="P39" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="R39" s="9" t="s">
+      <c r="R39" s="7" t="s">
         <v>139</v>
       </c>
       <c r="AA39" s="1"/>
@@ -6776,7 +6744,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="39" t="s">
         <v>491</v>
       </c>
       <c r="B43" s="1">
@@ -6843,7 +6811,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="12" t="s">
         <v>500</v>
       </c>
       <c r="B45" s="1">
@@ -6878,7 +6846,7 @@
       <c r="F46" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="16" t="s">
         <v>503</v>
       </c>
       <c r="H46" s="1" t="s">
@@ -6969,7 +6937,7 @@
       <c r="F49" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>512</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -7002,43 +6970,43 @@
       <c r="R49" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T49" s="9" t="s">
+      <c r="T49" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="U49" s="11" t="s">
+      <c r="U49" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="V49" s="9" t="s">
+      <c r="V49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="W49" s="9" t="s">
+      <c r="W49" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="X49" s="9" t="s">
+      <c r="X49" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="Y49" s="9" t="s">
+      <c r="Y49" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="AA49" s="9" t="s">
+      <c r="AA49" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="AB49" s="11" t="s">
+      <c r="AB49" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="AC49" s="9" t="s">
+      <c r="AC49" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AD49" s="9" t="s">
+      <c r="AD49" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="AE49" s="9" t="s">
+      <c r="AE49" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AF49" s="9" t="s">
+      <c r="AF49" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="AG49" s="9"/>
+      <c r="AG49" s="7"/>
       <c r="AH49" s="1" t="s">
         <v>524</v>
       </c>
@@ -7114,28 +7082,28 @@
       <c r="BO49" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="BQ49" s="9" t="s">
+      <c r="BQ49" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="BR49" s="10" t="s">
+      <c r="BR49" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="BS49" s="9" t="s">
+      <c r="BS49" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="BT49" s="9" t="s">
+      <c r="BT49" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="BU49" s="9" t="s">
+      <c r="BU49" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="BV49" s="9" t="s">
+      <c r="BV49" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="BX49" s="9" t="s">
+      <c r="BX49" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="BY49" s="20" t="s">
+      <c r="BY49" s="17" t="s">
         <v>539</v>
       </c>
       <c r="BZ49" s="1" t="s">
@@ -7171,7 +7139,7 @@
       <c r="CL49" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="CM49" s="7" t="s">
+      <c r="CM49" s="5" t="s">
         <v>544</v>
       </c>
       <c r="CN49" s="1" t="s">
@@ -7194,7 +7162,7 @@
       <c r="DE49" s="1"/>
     </row>
     <row r="50" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="12" t="s">
         <v>546</v>
       </c>
       <c r="B50" s="1">
@@ -7297,7 +7265,7 @@
       <c r="F52" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="5" t="s">
         <v>558</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -7353,7 +7321,7 @@
       <c r="M53" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="5" t="s">
         <v>564</v>
       </c>
       <c r="O53" s="1" t="s">
@@ -7404,20 +7372,20 @@
       <c r="AF53" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AH53" s="9" t="s">
+      <c r="AH53" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AI53" s="9"/>
-      <c r="AJ53" s="9" t="s">
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AK53" s="9" t="s">
+      <c r="AK53" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="AL53" s="9" t="s">
+      <c r="AL53" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AM53" s="9" t="s">
+      <c r="AM53" s="7" t="s">
         <v>139</v>
       </c>
       <c r="AO53" s="1" t="s">
@@ -7483,7 +7451,7 @@
       </c>
     </row>
     <row r="56" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="12" t="s">
         <v>575</v>
       </c>
       <c r="B56" s="1">
@@ -7522,7 +7490,7 @@
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="6" t="s">
         <v>578</v>
       </c>
       <c r="B58" s="1">
@@ -7628,7 +7596,7 @@
       </c>
     </row>
     <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="39" t="s">
         <v>588</v>
       </c>
       <c r="B60" s="1">
@@ -7648,7 +7616,7 @@
       </c>
     </row>
     <row r="61" spans="1:109" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>589</v>
       </c>
       <c r="B61" s="1">
@@ -7668,7 +7636,7 @@
       </c>
     </row>
     <row r="62" spans="1:109" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="14" t="s">
         <v>590</v>
       </c>
       <c r="B62" s="1">
@@ -7701,22 +7669,22 @@
       <c r="K62" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="N62" s="9" t="s">
+      <c r="N62" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="O62" s="9" t="s">
+      <c r="O62" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P62" s="9" t="s">
+      <c r="P62" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="R62" s="9" t="s">
+      <c r="R62" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7771,7 +7739,7 @@
       </c>
     </row>
     <row r="64" spans="1:109" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>604</v>
       </c>
       <c r="B64" s="1">
@@ -7803,36 +7771,36 @@
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9" t="s">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="9" t="s">
+      <c r="I65" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="K65" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M65" s="9" t="s">
+      <c r="M65" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9" t="s">
+      <c r="N65" s="7"/>
+      <c r="O65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P65" s="9" t="s">
+      <c r="P65" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R65" s="9" t="s">
+      <c r="R65" s="7" t="s">
         <v>610</v>
       </c>
       <c r="T65" s="1" t="s">
@@ -7850,46 +7818,46 @@
       <c r="Y65" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA65" s="9" t="s">
+      <c r="AA65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AB65" s="11" t="s">
+      <c r="AB65" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="AC65" s="9" t="s">
+      <c r="AC65" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="AD65" s="9" t="s">
+      <c r="AD65" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="AE65" s="9" t="s">
+      <c r="AE65" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AF65" s="9" t="s">
+      <c r="AF65" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="AH65" s="9" t="s">
+      <c r="AH65" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="AI65" s="9"/>
-      <c r="AJ65" s="9" t="s">
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AK65" s="9" t="s">
+      <c r="AK65" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="AL65" s="9" t="s">
+      <c r="AL65" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="AM65" s="9" t="s">
+      <c r="AM65" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AN65" s="9" t="s">
+      <c r="AN65" s="7" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="66" spans="1:51" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>617</v>
       </c>
       <c r="B66" s="1">
@@ -7961,7 +7929,7 @@
       <c r="AA66" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AB66" s="7" t="s">
+      <c r="AB66" s="5" t="s">
         <v>629</v>
       </c>
       <c r="AC66" s="1" t="s">
@@ -7979,7 +7947,7 @@
       <c r="AH66" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="AI66" s="7" t="s">
+      <c r="AI66" s="5" t="s">
         <v>632</v>
       </c>
       <c r="AJ66" s="1" t="s">
@@ -8073,22 +8041,22 @@
       <c r="K68" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="M68" s="9" t="s">
+      <c r="M68" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="O68" s="9" t="s">
+      <c r="O68" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P68" s="9" t="s">
+      <c r="P68" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="R68" s="9" t="s">
+      <c r="R68" s="7" t="s">
         <v>102</v>
       </c>
       <c r="T68" s="1" t="s">
@@ -8158,7 +8126,7 @@
       </c>
     </row>
     <row r="70" spans="1:51" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="12" t="s">
         <v>648</v>
       </c>
       <c r="B70" s="1">
@@ -8208,22 +8176,22 @@
       <c r="K71" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M71" s="9" t="s">
+      <c r="M71" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="O71" s="9" t="s">
+      <c r="O71" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P71" s="9" t="s">
+      <c r="P71" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="Q71" s="9" t="s">
+      <c r="Q71" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="R71" s="9" t="s">
+      <c r="R71" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -8301,7 +8269,7 @@
       </c>
     </row>
     <row r="74" spans="1:51" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="14" t="s">
         <v>662</v>
       </c>
       <c r="B74" s="1">
@@ -8337,7 +8305,7 @@
       <c r="M74" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N74" s="7" t="s">
+      <c r="N74" s="5" t="s">
         <v>666</v>
       </c>
       <c r="O74" s="1" t="s">
@@ -8366,22 +8334,22 @@
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K75" s="7" t="s">
         <v>672</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -8453,7 +8421,7 @@
       <c r="M76" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="N76" s="7" t="s">
+      <c r="N76" s="5" t="s">
         <v>681</v>
       </c>
       <c r="O76" s="1" t="s">
@@ -8547,22 +8515,22 @@
       <c r="R78" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T78" s="9" t="s">
+      <c r="T78" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="U78" s="10" t="s">
+      <c r="U78" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="V78" s="9" t="s">
+      <c r="V78" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="W78" s="13" t="s">
+      <c r="W78" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="X78" s="9" t="s">
+      <c r="X78" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="Y78" s="9" t="s">
+      <c r="Y78" s="7" t="s">
         <v>102</v>
       </c>
       <c r="AA78" s="1" t="s">
@@ -8595,8 +8563,8 @@
       <c r="AM78" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AR78" s="12"/>
-      <c r="AY78" s="12"/>
+      <c r="AR78" s="10"/>
+      <c r="AY78" s="10"/>
     </row>
     <row r="79" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
@@ -8706,7 +8674,7 @@
       <c r="F80" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="5" t="s">
         <v>699</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -8762,22 +8730,22 @@
       <c r="L81" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="M81" s="9" t="s">
+      <c r="M81" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="N81" s="10" t="s">
+      <c r="N81" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="O81" s="9" t="s">
+      <c r="O81" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P81" s="9" t="s">
+      <c r="P81" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="Q81" s="9" t="s">
+      <c r="Q81" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="R81" s="9" t="s">
+      <c r="R81" s="7" t="s">
         <v>139</v>
       </c>
       <c r="T81" s="1" t="s">
@@ -8905,7 +8873,7 @@
       <c r="AF83" s="1"/>
     </row>
     <row r="84" spans="1:46" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="12" t="s">
         <v>723</v>
       </c>
       <c r="B84" s="1">
@@ -8923,10 +8891,10 @@
       <c r="F84" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="S84" s="21"/>
+      <c r="S84" s="18"/>
     </row>
     <row r="85" spans="1:46" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="19" t="s">
         <v>724</v>
       </c>
       <c r="B85" s="1">
@@ -8946,7 +8914,7 @@
       </c>
     </row>
     <row r="86" spans="1:46" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="12" t="s">
         <v>726</v>
       </c>
       <c r="B86" s="1">
@@ -9017,7 +8985,7 @@
       <c r="T87" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="U87" s="7" t="s">
+      <c r="U87" s="5" t="s">
         <v>736</v>
       </c>
       <c r="V87" s="1" t="s">
@@ -9154,22 +9122,22 @@
       <c r="Y88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA88" s="9" t="s">
+      <c r="AA88" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="AB88" s="9" t="s">
+      <c r="AB88" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="AC88" s="9" t="s">
+      <c r="AC88" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AD88" s="9" t="s">
+      <c r="AD88" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="AE88" s="9" t="s">
+      <c r="AE88" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AF88" s="9" t="s">
+      <c r="AF88" s="7" t="s">
         <v>102</v>
       </c>
       <c r="AI88" s="1"/>
@@ -9225,7 +9193,7 @@
       </c>
     </row>
     <row r="90" spans="1:46" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>765</v>
       </c>
       <c r="B90" s="1">
@@ -9366,7 +9334,7 @@
       </c>
     </row>
     <row r="96" spans="1:46" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="12" t="s">
         <v>779</v>
       </c>
       <c r="B96" s="1">
@@ -9398,22 +9366,22 @@
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="34" t="s">
         <v>781</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="G97" s="35" t="s">
         <v>782</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="I97" s="23" t="s">
+      <c r="I97" s="34" t="s">
         <v>783</v>
       </c>
-      <c r="J97" s="23" t="s">
+      <c r="J97" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="23" t="s">
+      <c r="K97" s="34" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9625,7 +9593,7 @@
       </c>
     </row>
     <row r="104" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="20" t="s">
         <v>806</v>
       </c>
       <c r="B104" s="1">
@@ -9731,16 +9699,16 @@
       </c>
     </row>
     <row r="107" spans="1:32" ht="56" x14ac:dyDescent="0.15">
-      <c r="A107" s="26" t="s">
+      <c r="A107" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="22" t="s">
         <v>819</v>
       </c>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="E107" s="27"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" spans="1:32" ht="13" x14ac:dyDescent="0.15">
       <c r="C108" s="1">
@@ -9927,9 +9895,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10057,7 +10025,7 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>822</v>
       </c>
       <c r="B3" s="1">
@@ -10248,7 +10216,7 @@
       <c r="F8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="23" t="s">
         <v>828</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -10267,7 +10235,7 @@
       <c r="M8" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="23" t="s">
         <v>830</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -10283,22 +10251,22 @@
         <v>102</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="23" t="s">
+      <c r="T8" s="34" t="s">
         <v>832</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="V8" s="23" t="s">
+      <c r="V8" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="23" t="s">
+      <c r="W8" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="X8" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="34" t="s">
         <v>834</v>
       </c>
       <c r="Z8" s="1"/>
@@ -10422,7 +10390,7 @@
       <c r="F12" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="24" t="s">
         <v>840</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -10441,7 +10409,7 @@
       <c r="M12" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="23" t="s">
         <v>842</v>
       </c>
       <c r="O12" s="1" t="s">
@@ -10554,7 +10522,7 @@
       <c r="F15" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="23" t="s">
         <v>847</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -10602,7 +10570,7 @@
       <c r="F16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="23" t="s">
         <v>851</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -10702,7 +10670,7 @@
       <c r="Y18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>854</v>
       </c>
       <c r="B19" s="1">
@@ -10754,20 +10722,20 @@
         <v>1</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="34" t="s">
         <v>856</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="34" t="s">
         <v>857</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="34" t="s">
         <v>102</v>
       </c>
       <c r="L20" s="1"/>
@@ -10855,7 +10823,7 @@
       <c r="Y22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>860</v>
       </c>
       <c r="B23" s="1">
@@ -10910,7 +10878,7 @@
       <c r="F24" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="23" t="s">
         <v>863</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -10958,7 +10926,7 @@
       <c r="F25" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="24" t="s">
         <v>867</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -11006,7 +10974,7 @@
       <c r="F26" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="23" t="s">
         <v>872</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -11106,7 +11074,7 @@
       <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="25" t="s">
         <v>876</v>
       </c>
       <c r="B29" s="1">
@@ -11122,7 +11090,7 @@
       <c r="F29" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="23" t="s">
         <v>877</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -11141,7 +11109,7 @@
       <c r="M29" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="N29" s="28" t="s">
+      <c r="N29" s="23" t="s">
         <v>880</v>
       </c>
       <c r="O29" s="1" t="s">
@@ -11268,7 +11236,7 @@
       <c r="Y32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="6" t="s">
         <v>885</v>
       </c>
       <c r="B33" s="1">
@@ -11280,7 +11248,7 @@
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>886</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -11425,7 +11393,7 @@
       <c r="F37" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="G37" s="28" t="s">
+      <c r="G37" s="23" t="s">
         <v>892</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -11473,7 +11441,7 @@
       <c r="F38" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="G38" s="28" t="s">
+      <c r="G38" s="23" t="s">
         <v>896</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -11492,7 +11460,7 @@
       <c r="M38" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="N38" s="28" t="s">
+      <c r="N38" s="23" t="s">
         <v>899</v>
       </c>
       <c r="O38" s="1" t="s">
@@ -11647,7 +11615,7 @@
       <c r="F42" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="23" t="s">
         <v>907</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -11759,7 +11727,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="14" t="s">
         <v>913</v>
       </c>
       <c r="B45" s="1">
@@ -11777,7 +11745,7 @@
       <c r="F45" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="23" t="s">
         <v>915</v>
       </c>
       <c r="H45" s="1" t="s">
@@ -11881,7 +11849,7 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>919</v>
       </c>
       <c r="B48" s="1">
@@ -11973,7 +11941,7 @@
       <c r="F50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="28" t="s">
+      <c r="G50" s="23" t="s">
         <v>923</v>
       </c>
       <c r="H50" s="1" t="s">
@@ -12061,16 +12029,16 @@
       <c r="Y52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="21" t="s">
         <v>925</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="E53" s="27"/>
+      <c r="E53" s="22"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -32970,245 +32938,191 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>930</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="33"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="29" t="s">
         <v>933</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="B5" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
-        <v>934</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="9" t="s">
+      <c r="A6" s="30" t="s">
         <v>935</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="37" t="s">
-        <v>936</v>
-      </c>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="26" t="s">
         <v>937</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B9" s="9" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
         <v>939</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40" t="s">
+        <v>951</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>950</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>954</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A23:A26">
+  <conditionalFormatting sqref="A19:A22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>

--- a/data/DataVisualizationClassSurvey.xlsx
+++ b/data/DataVisualizationClassSurvey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjbranson/Documents/CMU/Research/Statistical Graphics Paper/Replication Materials GitHub/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zjbranson/Documents/CMU/Research/Statistical Graphics Paper/Replication Materials OSF and GitHub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29BB642-3848-914D-8C8D-35E21F8942EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67AC84A-A816-D344-9431-B66A3F32F719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Universities" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="946">
   <si>
     <t>University</t>
   </si>
@@ -2533,15 +2533,6 @@
     <t>Information Systems and Management</t>
   </si>
   <si>
-    <t>Information for Monica:</t>
-  </si>
-  <si>
-    <t>Total Accessible Course Catalogs:</t>
-  </si>
-  <si>
-    <t>Total Uni's with DataViz classes</t>
-  </si>
-  <si>
     <t>Williams College</t>
   </si>
   <si>
@@ -2852,15 +2843,6 @@
   </si>
   <si>
     <t>Whitman College</t>
-  </si>
-  <si>
-    <t>Info for Monica:</t>
-  </si>
-  <si>
-    <t>Catalogs Accesible:</t>
-  </si>
-  <si>
-    <t>Total Uni's with Classes:</t>
   </si>
   <si>
     <t>Column A:</t>
@@ -3175,7 +3157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3201,10 +3183,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3220,11 +3198,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -3470,13 +3446,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:DF112"/>
+  <dimension ref="A1:DF109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4352,22 +4328,22 @@
       <c r="S11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="T11" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="U11" s="37" t="s">
+      <c r="U11" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="V11" s="36" t="s">
+      <c r="V11" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="W11" s="36" t="s">
+      <c r="W11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="X11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Y11" s="36" t="s">
+      <c r="Y11" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Z11" s="1"/>
@@ -5559,7 +5535,7 @@
         <v>198</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>172</v>
@@ -6744,7 +6720,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="35" t="s">
         <v>491</v>
       </c>
       <c r="B43" s="1">
@@ -7596,7 +7572,7 @@
       </c>
     </row>
     <row r="60" spans="1:109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="35" t="s">
         <v>588</v>
       </c>
       <c r="B60" s="1">
@@ -9366,22 +9342,22 @@
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="34" t="s">
+      <c r="F97" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="G97" s="35" t="s">
+      <c r="G97" s="32" t="s">
         <v>782</v>
       </c>
-      <c r="H97" s="34" t="s">
+      <c r="H97" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I97" s="34" t="s">
+      <c r="I97" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="J97" s="34" t="s">
+      <c r="J97" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K97" s="34" t="s">
+      <c r="K97" s="1" t="s">
         <v>172</v>
       </c>
     </row>
@@ -9698,39 +9674,14 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:32" ht="56" x14ac:dyDescent="0.15">
-      <c r="A107" s="21" t="s">
-        <v>818</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>820</v>
-      </c>
-      <c r="E107" s="22"/>
+    <row r="107" spans="1:32" ht="13" x14ac:dyDescent="0.15">
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="C108" s="1">
-        <f t="shared" ref="C108:D108" si="0">COUNTIF(C2:C105, TRUE)</f>
-        <v>89</v>
-      </c>
-      <c r="D108" s="1">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:32" ht="13" x14ac:dyDescent="0.15">
-      <c r="C112" s="1"/>
+      <c r="C109" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D105 E2:E18 E20:E34 E36:E57 E59:E61 E63:E73 E75:E89 E91:E105">
@@ -9893,11 +9844,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42"/>
+      <selection pane="topRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9990,7 +9941,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -10026,7 +9977,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -10065,7 +10016,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -10099,7 +10050,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -10133,7 +10084,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -10167,7 +10118,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -10201,7 +10152,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
@@ -10216,8 +10167,8 @@
       <c r="F8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>828</v>
+      <c r="G8" s="21" t="s">
+        <v>825</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>100</v>
@@ -10233,16 +10184,16 @@
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>830</v>
+        <v>826</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>827</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>102</v>
@@ -10251,29 +10202,29 @@
         <v>102</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="34" t="s">
-        <v>832</v>
-      </c>
-      <c r="U8" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="V8" s="34" t="s">
+      <c r="T8" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="U8" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="X8" s="34" t="s">
+      <c r="X8" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Y8" s="34" t="s">
-        <v>834</v>
+      <c r="Y8" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
@@ -10307,7 +10258,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -10341,7 +10292,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
@@ -10375,7 +10326,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -10388,10 +10339,10 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>840</v>
+        <v>836</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>837</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>100</v>
@@ -10403,14 +10354,14 @@
         <v>102</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>842</v>
+      <c r="N12" s="21" t="s">
+        <v>839</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>100</v>
@@ -10435,7 +10386,7 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
@@ -10471,7 +10422,7 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -10507,7 +10458,7 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
@@ -10520,22 +10471,22 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>847</v>
+        <v>843</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>844</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>142</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -10555,7 +10506,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -10570,8 +10521,8 @@
       <c r="F16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>851</v>
+      <c r="G16" s="21" t="s">
+        <v>848</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>100</v>
@@ -10603,7 +10554,7 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
@@ -10637,7 +10588,7 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B18" s="1">
         <v>15</v>
@@ -10671,7 +10622,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -10710,7 +10661,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B20" s="1">
         <v>18</v>
@@ -10722,20 +10673,20 @@
         <v>1</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="34" t="s">
-        <v>856</v>
-      </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34" t="s">
+      <c r="F20" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>857</v>
-      </c>
-      <c r="J20" s="34" t="s">
+      <c r="I20" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="34" t="s">
+      <c r="K20" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L20" s="1"/>
@@ -10756,7 +10707,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B21" s="1">
         <v>18</v>
@@ -10790,7 +10741,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="B22" s="1">
         <v>18</v>
@@ -10824,7 +10775,7 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B23" s="1">
         <v>18</v>
@@ -10863,7 +10814,7 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B24" s="1">
         <v>18</v>
@@ -10876,16 +10827,16 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>863</v>
+        <v>859</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>860</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>130</v>
@@ -10911,7 +10862,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -10924,10 +10875,10 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>867</v>
+        <v>863</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>864</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>100</v>
@@ -10936,10 +10887,10 @@
         <v>261</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -10959,7 +10910,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -10972,16 +10923,16 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>872</v>
+        <v>868</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>869</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>102</v>
@@ -11007,7 +10958,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -11041,7 +10992,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -11074,8 +11025,8 @@
       <c r="Y28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="25" t="s">
-        <v>876</v>
+      <c r="A29" s="23" t="s">
+        <v>873</v>
       </c>
       <c r="B29" s="1">
         <v>27</v>
@@ -11090,8 +11041,8 @@
       <c r="F29" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="23" t="s">
-        <v>877</v>
+      <c r="G29" s="21" t="s">
+        <v>874</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>100</v>
@@ -11100,17 +11051,17 @@
         <v>124</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>102</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="N29" s="23" t="s">
-        <v>880</v>
+        <v>876</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>877</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>100</v>
@@ -11122,7 +11073,7 @@
         <v>130</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -11135,7 +11086,7 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -11169,7 +11120,7 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B31" s="1">
         <v>29</v>
@@ -11203,7 +11154,7 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -11237,7 +11188,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B33" s="1">
         <v>31</v>
@@ -11249,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>367</v>
@@ -11276,7 +11227,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -11310,7 +11261,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B35" s="1">
         <v>33</v>
@@ -11344,7 +11295,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B36" s="1">
         <v>33</v>
@@ -11378,7 +11329,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -11391,16 +11342,16 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>892</v>
+        <v>888</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>889</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>102</v>
@@ -11426,7 +11377,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -11439,16 +11390,16 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>896</v>
+        <v>892</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>893</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>102</v>
@@ -11458,10 +11409,10 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="N38" s="23" t="s">
-        <v>899</v>
+        <v>895</v>
+      </c>
+      <c r="N38" s="21" t="s">
+        <v>896</v>
       </c>
       <c r="O38" s="1" t="s">
         <v>100</v>
@@ -11486,7 +11437,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B39" s="1">
         <v>37</v>
@@ -11520,7 +11471,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -11533,14 +11484,14 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>102</v>
@@ -11566,7 +11517,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B41" s="1">
         <v>39</v>
@@ -11600,7 +11551,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B42" s="1">
         <v>39</v>
@@ -11613,16 +11564,16 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>907</v>
+        <v>903</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>904</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>102</v>
@@ -11648,7 +11599,7 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B43" s="1">
         <v>39</v>
@@ -11661,7 +11612,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
@@ -11671,7 +11622,7 @@
         <v>261</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -11692,7 +11643,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B44" s="1">
         <v>39</v>
@@ -11728,7 +11679,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B45" s="1">
         <v>39</v>
@@ -11743,16 +11694,16 @@
         <v>456</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>915</v>
+        <v>911</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>912</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>100</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>114</v>
@@ -11778,7 +11729,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -11814,7 +11765,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B47" s="1">
         <v>45</v>
@@ -11850,7 +11801,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B48" s="1">
         <v>45</v>
@@ -11862,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>367</v>
@@ -11890,7 +11841,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
@@ -11926,7 +11877,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B50" s="1">
         <v>48</v>
@@ -11941,8 +11892,8 @@
       <c r="F50" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>923</v>
+      <c r="G50" s="21" t="s">
+        <v>920</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>100</v>
@@ -11974,7 +11925,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B51" s="1">
         <v>48</v>
@@ -12029,16 +11980,6 @@
       <c r="Y52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="21" t="s">
-        <v>925</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>926</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>927</v>
-      </c>
-      <c r="E53" s="22"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -12061,15 +12002,6 @@
       <c r="Y53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="1"/>
-      <c r="C54" s="1">
-        <f t="shared" ref="C54:D54" si="0">COUNTIF(C2:C51, TRUE)</f>
-        <v>46</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -12135,7 +12067,7 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -12157,7 +12089,7 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -32858,50 +32790,6 @@
       <c r="W998" s="2"/>
       <c r="X998" s="2"/>
       <c r="Y998" s="2"/>
-    </row>
-    <row r="999" spans="6:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-    </row>
-    <row r="1000" spans="6:25" ht="13" x14ac:dyDescent="0.15">
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D51 E2:E32 E34:E44 E46:E51">
@@ -32940,23 +32828,23 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
-        <v>928</v>
+      <c r="A1" s="24" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -32968,9 +32856,9 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="7" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -32982,9 +32870,9 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="7" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -32996,11 +32884,11 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>933</v>
+      <c r="A5" s="27" t="s">
+        <v>927</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -33012,11 +32900,11 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>935</v>
+      <c r="A6" s="28" t="s">
+        <v>929</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -33028,97 +32916,97 @@
       <c r="J6" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>937</v>
+      <c r="A8" s="24" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
-        <v>939</v>
+      <c r="A11" s="29" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40" t="s">
-        <v>951</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+      <c r="A12" s="36" t="s">
+        <v>945</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
